--- a/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T05:54:15+00:00</t>
+    <t>2024-10-31T11:57:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:57:52+00:00</t>
+    <t>2024-10-31T12:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:04:28+00:00</t>
+    <t>2024-10-31T12:09:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-OxygenDeliveryDetail.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:09:23+00:00</t>
+    <t>2024-11-06T06:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
